--- a/biology/Zoologie/Antilopinae/Antilopinae.xlsx
+++ b/biology/Zoologie/Antilopinae/Antilopinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Antilopinés (Antilopinae) sont une sous-famille de Bovidés comprenant les vraies antilopes. Ce regroupement s'étant révélé polyphylétique[1], il a été restreint à la tribu Antilopini au sens large dans les nouvelles classifications en excluant certaines espèces naines.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Antilopinés (Antilopinae) sont une sous-famille de Bovidés comprenant les vraies antilopes. Ce regroupement s'étant révélé polyphylétique, il a été restreint à la tribu Antilopini au sens large dans les nouvelles classifications en excluant certaines espèces naines.
 On les trouve majoritairement en Afrique, mis à part certaines exceptions comme le Saiga.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des genres actuelles selon l'ITIS[2], d'après MSW[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des genres actuelles selon l'ITIS, d'après MSW :
 genre Ammodorcas Thomas, 1891
 genre Antidorcas Sundevall, 1847
 genre Antilope Pallas, 1766
@@ -557,11 +571,13 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Bovidés par tribus, d'après Calamari (2021) :
 N.B. dans le cladogramme ci-dessus, Antilopinae est utilisé au sens strict et Aegodontia correspond au sens large.[Quoi ?]
-Systématique interne selon Zurano et al. 2019[5]
+Systématique interne selon Zurano et al. 2019
 </t>
         </is>
       </c>
